--- a/data9.xlsx
+++ b/data9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\MATLAB\Examples\R2020b\matlab\PRMIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80D55E3-9B50-45E7-9794-ECB53780A266}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA4862F-B9E7-4643-BE8A-4F5B1A01E4CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
     <t>Day</t>
   </si>
   <si>
-    <t>Daily Spot Position</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -43,6 +40,9 @@
   </si>
   <si>
     <t>Notional pricipal of Options contracts ($m)</t>
+  </si>
+  <si>
+    <t>Notional Principal of options</t>
   </si>
 </sst>
 </file>
@@ -115,10 +115,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -127,6 +126,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -408,27 +410,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <f ca="1">Sheet2!B3</f>
-        <v>291698.06111883267</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <f ca="1">ROUND(Sheet2!B3,0)</f>
+        <v>292803</v>
+      </c>
+      <c r="B2" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -440,39 +443,39 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>37320</v>
       </c>
       <c r="B2">
         <f ca="1">290000+RAND()*14500</f>
-        <v>295010.73957026785</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>298001.7333845261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>37321</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="8">
         <f ca="1">290000+RAND()*14500</f>
-        <v>291698.06111883267</v>
+        <v>292803.22572442546</v>
       </c>
     </row>
   </sheetData>
@@ -484,21 +487,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A46995A-4F84-4AA1-88EE-53E8EC266FFA}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <f ca="1">-(100-(Sheet2!B3*100/Sheet2!B2))</f>
-        <v>-1.1229009683717379</v>
+        <v>-1.7444555107311288</v>
       </c>
     </row>
   </sheetData>
@@ -514,327 +517,327 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>2001</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2002</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2003</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2004</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2005</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>420</v>
+      </c>
+      <c r="B3" s="3">
+        <v>369</v>
+      </c>
+      <c r="C3" s="3">
+        <v>127</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-190</v>
+      </c>
+      <c r="E3" s="3">
+        <v>-15</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>2001</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B7" s="4">
         <v>2002</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C7" s="4">
         <v>2003</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D7" s="4">
         <v>2004</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E7" s="4">
         <v>2005</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>420</v>
-      </c>
-      <c r="B3" s="4">
-        <v>369</v>
-      </c>
-      <c r="C3" s="4">
-        <v>127</v>
-      </c>
-      <c r="D3" s="4">
-        <v>-190</v>
-      </c>
-      <c r="E3" s="4">
-        <v>-15</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>2001</v>
-      </c>
-      <c r="B7" s="5">
-        <v>2002</v>
-      </c>
-      <c r="C7" s="5">
-        <v>2003</v>
-      </c>
-      <c r="D7" s="5">
-        <v>2004</v>
-      </c>
-      <c r="E7" s="5">
-        <v>2005</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
         <v>95653</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>297306</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>253481</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>348056</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>38414</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
